--- a/result/0-shot/Baichuan-13B/extract/combineddrugs/extract.xlsx
+++ b/result/0-shot/Baichuan-13B/extract/combineddrugs/extract.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>（B）ARNI,二氢吡啶类CCB</t>
+          <t>（F）</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
+          <t>（C）</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>（A）ACEI,二氢吡啶类CCB</t>
+          <t>（B）</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂</t>
+          <t>（D）ARB,β受体阻滞剂,醛固酮受体拮抗剂</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -541,12 +541,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>（D）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>（B）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -581,12 +581,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>（A）β受体阻滞剂,ACEI,二氢吡啶类CCB,噻嗪类利尿剂</t>
+          <t>（E）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>（B）襻利尿剂,直接血管扩张药物</t>
+          <t>（D）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,氨氯地平</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>（D）二氢吡啶类CCB,ACEI,β受体阻滞剂</t>
+          <t>（D）</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
+          <t>（C）</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -681,12 +681,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>（A）ACEI,二氢吡啶类CCB</t>
+          <t>（F）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>（A）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -721,12 +721,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>（D）ARNI,醛固酮受体拮抗剂</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>（D）二氢吡啶类CCB,ACEI</t>
+          <t>（A）ARNI,β受体阻滞剂,醛固酮受体拮抗剂</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>（B）二氢吡啶类CCB,非二氢吡啶类CCB</t>
+          <t>（D）β受体阻滞剂,ACEI</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,襻利尿剂</t>
+          <t>（D）β受体阻滞剂,ACEI,非二氢吡啶类CCB,噻嗪类利尿剂</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂</t>
+          <t>（D）ARB、β受体阻滞剂、醛固酮受体拮抗剂</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>（B）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平</t>
+          <t>（D）ARB,β受体阻滞剂,袢利尿剂</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>（A）</t>
+          <t>（D）非二氢吡啶类CCB,ACEI,噻嗪类利尿剂</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>（B）β受体阻滞剂,ARB,非二氢吡啶类CCB,噻嗪类利尿剂</t>
+          <t>（G）二氢吡啶类CCB,ARB,β受体阻滞剂</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>（B）二氢吡啶类CCB,ACEI,β受体阻滞剂</t>
+          <t>（D）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>（A）二氢吡啶类CCB,ARB</t>
+          <t>（G）ARB,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>（B）ARB,β受体阻滞剂,袢利尿剂,地高辛</t>
+          <t>（B）ARB, β受体阻滞剂, 襻利尿剂, 地高辛</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>（B）ARB,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>（C）</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1001,12 +1001,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>（A）β受体阻滞剂,ARB,非二氢吡啶类CCB,噻嗪类利尿剂</t>
+          <t>（F）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>（B）ARB,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>（E）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>（C）ARB,二氢吡啶类CCB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1061,12 +1061,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>（G）ARNI,β受体阻滞剂</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>（E）ARB,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
+          <t>（C）ARB,β受体阻滞剂,醛固酮受体拮抗剂</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>（B）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,氨氯地平</t>
+          <t>（H）β受体阻滞剂,CCB,利尿剂</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>无法匹配</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>（C）ARB,β受体阻滞剂,醛固酮受体拮抗剂,氨氯地平</t>
+          <t>（G）ARB,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,非洛地平</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>（E）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1181,12 +1181,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>（B）β受体阻滞剂,ARB,非二氢吡啶类CCB,噻嗪类利尿剂</t>
+          <t>（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>（A）非二氢吡啶类CCB,ARB,噻嗪类利尿剂</t>
+          <t>（C）ARB,二氢吡啶类CCB,噻嗪类利尿剂</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>（C）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>（B）二氢吡啶类CCB,保钾利尿剂</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>（F）ACEI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,氨氯地平</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>（B）ARB,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂</t>
+          <t>（A）</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1341,12 +1341,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>（C）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,非洛地平</t>
+          <t>（D）β受体阻滞剂, ACEI</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂,非洛地平</t>
+          <t>（G）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,噻嗪类利尿剂</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,袢利尿剂,氨氯地平</t>
+          <t>（B）</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>（B）ARNI,β受体阻滞剂,醛固酮受体拮抗剂,非洛地平</t>
+          <t>（C）ARNI,β受体阻滞剂,襻利尿剂</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
